--- a/ARTIQ_ALTIUM/EEMs/Grabber/Project Outputs for PCB_3U_CamLink/BOM/Bill of Materials-PCB_3U_CamLink.xlsx
+++ b/ARTIQ_ALTIUM/EEMs/Grabber/Project Outputs for PCB_3U_CamLink/BOM/Bill of Materials-PCB_3U_CamLink.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_3U_CamLin" sheetId="1" r:id="rId1"/>
